--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\SauceLab_Project\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A8330-F340-48CE-889A-AA26569E5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B1277-0BB4-4FA2-A9CA-B4E1BCF41C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\SauceLab_Project\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B1277-0BB4-4FA2-A9CA-B4E1BCF41C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF24C7-EFF0-45ED-838D-FEA2991D3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_test" sheetId="1" r:id="rId1"/>
+    <sheet name="verify_product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -409,60 +410,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,4 +453,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD29FEA9-A9D8-4A79-BB5A-00DB7B7F39AE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{DED803C6-F985-4FC1-AC07-635CA19D5ED3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>